--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44974</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 8216-2023</t>
+          <t>A 14020-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44974</v>
+        <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,29 +584,24 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -614,15 +609,111 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Ryl
+Backtimjan
+Orange taggsvamp
+Spillkråka
+Dropptaggsvamp
+Grönpyrola
+Kopparödla</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 14020-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 14020-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 14020-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 14020-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 14020-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 14020-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 8216-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Gul lammticka
 Blomkålssvamp
@@ -631,117 +722,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 8216-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 8216-2023.png")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 8216-2023.docx")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 8216-2023.docx")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 8216-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 8216-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 14020-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Ryl
-Backtimjan
-Spillkråka
-Grönpyrola
-Kopparödla</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 14020-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 14020-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 14020-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 14020-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 14020-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 14020-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +757,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +844,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +931,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1023,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1113,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1198,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1283,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1368,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1453,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1538,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,7 +1600,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1662,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,7 +1719,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1774,7 +1776,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1838,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1895,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1950,7 +1952,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2007,7 +2009,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2064,7 +2066,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2121,7 +2123,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2178,7 +2180,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2235,7 +2237,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2292,7 +2294,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2349,7 +2351,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2406,7 +2408,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2463,7 +2465,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2520,7 +2522,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2577,7 +2579,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2634,7 +2636,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2691,7 +2693,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2748,7 +2750,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2805,7 +2807,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2862,7 +2864,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2919,7 +2921,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2976,7 +2978,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,7 +3035,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3090,7 +3092,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,7 +3154,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3209,7 +3211,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3271,7 +3273,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3328,7 +3330,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3385,7 +3387,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 14020-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 14020-2023.xlsx", "A 14020-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 14020-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 14020-2023.png", "A 14020-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 14020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 14020-2023.docx", "A 14020-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 14020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 14020-2023.docx", "A 14020-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 14020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 14020-2023.docx", "A 14020-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 14020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 14020-2023.docx", "A 14020-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 8216-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 8216-2023.xlsx", "A 8216-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 8216-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 8216-2023.png", "A 8216-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 8216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 8216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 8216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 8216-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 26334-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 26334-2020.xlsx", "A 26334-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 26334-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 26334-2020.png", "A 26334-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 26334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 26334-2020.docx", "A 26334-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 26334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 26334-2020.docx", "A 26334-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 26334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 26334-2020.docx", "A 26334-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 26334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 26334-2020.docx", "A 26334-2020")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 11803-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 11803-2022.xlsx", "A 11803-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 11803-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 11803-2022.png", "A 11803-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 11803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 11803-2022.docx", "A 11803-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 11803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 11803-2022.docx", "A 11803-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 11803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 11803-2022.docx", "A 11803-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 11803-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 11803-2022.docx", "A 11803-2022")</f>
         <v/>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -989,27 +989,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13237-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13237-2023.xlsx", "A 13237-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13237-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13237-2023.png", "A 13237-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13237-2023.docx", "A 13237-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13237-2023.docx", "A 13237-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13237-2023.docx", "A 13237-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13237-2023.docx", "A 13237-2023")</f>
         <v/>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1079,27 +1079,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 31167-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 31167-2019.xlsx", "A 31167-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 31167-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 31167-2019.png", "A 31167-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 31167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 31167-2019.docx", "A 31167-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 31167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 31167-2019.docx", "A 31167-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 31167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 31167-2019.docx", "A 31167-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 31167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 31167-2019.docx", "A 31167-2019")</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1164,27 +1164,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 54231-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 54231-2019.xlsx", "A 54231-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 54231-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 54231-2019.png", "A 54231-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 54231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 54231-2019.docx", "A 54231-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 54231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 54231-2019.docx", "A 54231-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 54231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 54231-2019.docx", "A 54231-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 54231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 54231-2019.docx", "A 54231-2019")</f>
         <v/>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,27 +1249,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 7032-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 7032-2020.xlsx", "A 7032-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 7032-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 7032-2020.png", "A 7032-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 7032-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 7032-2020.docx", "A 7032-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 7032-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 7032-2020.docx", "A 7032-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 7032-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 7032-2020.docx", "A 7032-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 7032-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 7032-2020.docx", "A 7032-2020")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1334,27 +1334,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 3218-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 3218-2022.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 3218-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 3218-2022.png", "A 3218-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 3218-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 3218-2022.docx", "A 3218-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 3218-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 3218-2022.docx", "A 3218-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 3218-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 3218-2022.docx", "A 3218-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 3218-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 3218-2022.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1419,27 +1419,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13891-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13891-2022.xlsx", "A 13891-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13891-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13891-2022.png", "A 13891-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13891-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13891-2022.docx", "A 13891-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13891-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13891-2022.docx", "A 13891-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13891-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13891-2022.docx", "A 13891-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13891-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13891-2022.docx", "A 13891-2022")</f>
         <v/>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1504,27 +1504,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13794-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 13794-2023.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13794-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 13794-2023.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13794-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 13794-2023.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13794-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 13794-2023.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13794-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 13794-2023.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13794-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 13794-2023.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -609,17 +609,18 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Ryl
+Spricktaggsvamp
 Backtimjan
 Orange taggsvamp
 Spillkråka
@@ -663,7 +664,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +758,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +845,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +932,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1024,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1114,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1199,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1284,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1369,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1539,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1601,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1663,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1720,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1777,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1839,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1896,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1953,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2010,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2067,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2123,7 +2124,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2180,7 +2181,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2237,7 +2238,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2294,7 +2295,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2351,7 +2352,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2408,7 +2409,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2465,7 +2466,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2523,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2579,7 +2580,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2636,7 +2637,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2693,7 +2694,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2750,7 +2751,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2807,7 +2808,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2864,7 +2865,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2921,7 +2922,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2978,7 +2979,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3035,7 +3036,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3093,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3154,7 +3155,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3212,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3273,7 +3274,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3330,7 +3331,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3388,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43986</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,14 +657,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 8216-2023</t>
+          <t>A 26334-2020</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44974</v>
+        <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -676,13 +676,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -691,10 +686,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -709,12 +704,106 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Druvfingersvamp
+Blåmossa
+Bronshjon
+Dropptaggsvamp
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 26334-2020.xlsx", "A 26334-2020")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 26334-2020.png", "A 26334-2020")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 26334-2020.docx", "A 26334-2020")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 26334-2020.docx", "A 26334-2020")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 26334-2020.docx", "A 26334-2020")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 26334-2020.docx", "A 26334-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 8216-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gul lammticka
 Blomkålssvamp
@@ -723,115 +812,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 8216-2023.xlsx", "A 8216-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 8216-2023.png", "A 8216-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 8216-2023.docx", "A 8216-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 8216-2023.docx", "A 8216-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 26334-2020</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>43986</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Bronshjon
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/artfynd/A 26334-2020.xlsx", "A 26334-2020")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/kartor/A 26334-2020.png", "A 26334-2020")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomål/A 26334-2020.docx", "A 26334-2020")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/klagomålsmail/A 26334-2020.docx", "A 26334-2020")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsyn/A 26334-2020.docx", "A 26334-2020")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKERO/tillsynsmail/A 26334-2020.docx", "A 26334-2020")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1601,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1663,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1720,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1777,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1839,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1896,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1953,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2010,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2067,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2124,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2181,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2238,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2295,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2352,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2409,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2466,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2523,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2580,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2637,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2694,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2751,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2922,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2979,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3036,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3093,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3155,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3212,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3274,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3331,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3388,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44974</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44974</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44974</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44974</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -572,7 +572,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43986</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44974</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>43868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43753</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43798</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>43809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>43837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43857</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43885</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43892</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43892</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44039</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44209</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44221</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44498</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>44515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44662</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44670</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44802</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>44872</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44913</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45008</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45008</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45043</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
